--- a/EXCEL1_DATA_ENTRY_18.01.26.xlsx
+++ b/EXCEL1_DATA_ENTRY_18.01.26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\JIYA GITHUB\DATA-ANALYTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBB6A2-9FD5-42E4-B538-234362BEBB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5D76D-919C-4E5B-8D07-59EB412CBFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F23193C-F1ED-4459-961E-E75166BBE6B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t xml:space="preserve"> Sr. No.</t>
   </si>
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,7 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2175,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82659DB5-AC27-440B-94A4-E5FEC4C6926A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2189,7 @@
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2207,11 +2206,8 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2229,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2265,7 +2261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2283,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2319,7 +2315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2337,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2355,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2391,12 +2387,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="11">
         <f>SUM(D2:D11)</f>
         <v>259</v>
@@ -2441,43 +2437,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2498,7 +2494,7 @@
       <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>29516</v>
       </c>
       <c r="G2" s="2">
@@ -2541,7 +2537,7 @@
       <c r="E3" s="2">
         <v>25</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>40258</v>
       </c>
       <c r="G3" s="2">
@@ -2584,7 +2580,7 @@
       <c r="E4" s="2">
         <v>29</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>24067</v>
       </c>
       <c r="G4" s="2">
@@ -2627,7 +2623,7 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>20019</v>
       </c>
       <c r="G5" s="2">
@@ -2670,7 +2666,7 @@
       <c r="E6" s="2">
         <v>27</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>49770</v>
       </c>
       <c r="G6" s="2">
@@ -2713,7 +2709,7 @@
       <c r="E7" s="2">
         <v>27</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>44090</v>
       </c>
       <c r="G7" s="2">
@@ -2756,7 +2752,7 @@
       <c r="E8" s="2">
         <v>25</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>44624</v>
       </c>
       <c r="G8" s="2">
@@ -2799,7 +2795,7 @@
       <c r="E9" s="2">
         <v>26</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>42693</v>
       </c>
       <c r="G9" s="2">
@@ -2842,7 +2838,7 @@
       <c r="E10" s="2">
         <v>27</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>39498</v>
       </c>
       <c r="G10" s="2">
@@ -2885,7 +2881,7 @@
       <c r="E11" s="2">
         <v>23</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>40272</v>
       </c>
       <c r="G11" s="2">
@@ -2912,27 +2908,27 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="21">
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20">
         <f>SUM(E2:E11)</f>
         <v>259</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <f>SUM(F2:F11)</f>
         <v>374807</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="23"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
